--- a/reports/nn_experiment_results.xlsx
+++ b/reports/nn_experiment_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junkim/Desktop/math3856/ml_assignment_2/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71909C69-D1EB-7E44-9566-790641A8306E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BCFB4F-220B-C646-94A6-7E7D26886B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -808,124 +808,124 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>0.61181083507931766</v>
+        <v>0.57902424423825205</v>
       </c>
       <c r="C5">
-        <v>3.9943957850520134E-3</v>
+        <v>3.5471844970823801E-3</v>
       </c>
       <c r="D5">
-        <v>0.60925837320574161</v>
+        <v>0.58031100478468889</v>
       </c>
       <c r="E5">
-        <v>1.435926939216289E-2</v>
+        <v>1.271550792719542E-2</v>
       </c>
       <c r="F5">
-        <v>0.82410977982464417</v>
+        <v>0.75347914281325146</v>
       </c>
       <c r="G5">
-        <v>2.3464975951169331E-3</v>
+        <v>2.8593935424325689E-3</v>
       </c>
       <c r="H5">
-        <v>0.82319105965616313</v>
+        <v>0.75517878461858079</v>
       </c>
       <c r="I5">
-        <v>9.6195489549201502E-3</v>
+        <v>1.1515709650849981E-2</v>
       </c>
       <c r="J5">
-        <v>0.5856090990721341</v>
+        <v>0.52158635139179887</v>
       </c>
       <c r="K5">
-        <v>4.9339188147143088E-3</v>
+        <v>6.6119791813317617E-3</v>
       </c>
       <c r="L5">
-        <v>0.58712918660287072</v>
+        <v>0.52229665071770337</v>
       </c>
       <c r="M5">
-        <v>1.2241605989212329E-2</v>
+        <v>8.8476649394926433E-3</v>
       </c>
       <c r="N5">
-        <v>0.78316125322426544</v>
+        <v>0.67060814386113132</v>
       </c>
       <c r="O5">
-        <v>1.253887167409834E-2</v>
+        <v>2.7135881796194371E-2</v>
       </c>
       <c r="P5">
-        <v>0.77970349345291123</v>
+        <v>0.66882399309286489</v>
       </c>
       <c r="Q5">
-        <v>2.047579161852027E-2</v>
+        <v>3.1014026380709089E-2</v>
       </c>
       <c r="R5">
-        <v>0.61181083507931766</v>
+        <v>0.57902424423825205</v>
       </c>
       <c r="S5">
-        <v>3.9943957850520134E-3</v>
+        <v>3.5471844970823801E-3</v>
       </c>
       <c r="T5">
-        <v>0.60925837320574161</v>
+        <v>0.58031100478468889</v>
       </c>
       <c r="U5">
-        <v>1.435926939216289E-2</v>
+        <v>1.271550792719542E-2</v>
       </c>
       <c r="V5">
-        <v>0.82410977982464417</v>
+        <v>0.75347914281325146</v>
       </c>
       <c r="W5">
-        <v>2.3464975951169331E-3</v>
+        <v>2.8593935424325689E-3</v>
       </c>
       <c r="X5">
-        <v>0.82319105965616313</v>
+        <v>0.75517878461858079</v>
       </c>
       <c r="Y5">
-        <v>9.6195489549201502E-3</v>
+        <v>1.1515709650849981E-2</v>
       </c>
       <c r="Z5">
-        <v>0.61164920682430424</v>
+        <v>0.57891649206824314</v>
       </c>
       <c r="AA5">
-        <v>3.9446677715437332E-3</v>
+        <v>3.5704045619526291E-3</v>
       </c>
       <c r="AB5">
-        <v>0.60940191387559806</v>
+        <v>0.58026315789473681</v>
       </c>
       <c r="AC5">
-        <v>1.424843509023173E-2</v>
+        <v>1.2814684356695669E-2</v>
       </c>
       <c r="AD5">
-        <v>0.82404521510182904</v>
+        <v>0.75350513474917269</v>
       </c>
       <c r="AE5">
-        <v>2.272531543426202E-3</v>
+        <v>2.8351711505562498E-3</v>
       </c>
       <c r="AF5">
-        <v>0.8231069349450516</v>
+        <v>0.75519885041107415</v>
       </c>
       <c r="AG5">
-        <v>9.6469363195750158E-3</v>
+        <v>1.1529310169597949E-2</v>
       </c>
       <c r="AH5">
-        <v>0.61177491768931469</v>
+        <v>0.57910805148159239</v>
       </c>
       <c r="AI5">
-        <v>3.8570150509810979E-3</v>
+        <v>3.5318766836276829E-3</v>
       </c>
       <c r="AJ5">
-        <v>0.60911483253588516</v>
+        <v>0.58023923444976067</v>
       </c>
       <c r="AK5">
-        <v>1.444407584865269E-2</v>
+        <v>1.250406861282639E-2</v>
       </c>
       <c r="AL5">
-        <v>0.82367129814907369</v>
+        <v>0.75345274696194564</v>
       </c>
       <c r="AM5">
-        <v>2.3958377870888789E-3</v>
+        <v>2.8443424316607351E-3</v>
       </c>
       <c r="AN5">
-        <v>0.82284045765722014</v>
+        <v>0.7551360050552246</v>
       </c>
       <c r="AO5">
-        <v>9.5767264298581064E-3</v>
+        <v>1.1508484841068371E-2</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.2">
@@ -1058,124 +1058,124 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.61388805746782404</v>
+        <v>0.58038910505836583</v>
       </c>
       <c r="C7">
-        <v>4.2921740246018277E-3</v>
+        <v>3.6348012218060792E-3</v>
       </c>
       <c r="D7">
-        <v>0.61110047846889959</v>
+        <v>0.58062200956937793</v>
       </c>
       <c r="E7">
-        <v>1.4420976431951031E-2</v>
+        <v>1.2135107036337221E-2</v>
       </c>
       <c r="F7">
-        <v>0.82782012919732006</v>
+        <v>0.75495712566614726</v>
       </c>
       <c r="G7">
-        <v>2.468824909262242E-3</v>
+        <v>3.024051237282342E-3</v>
       </c>
       <c r="H7">
-        <v>0.82666974643143021</v>
+        <v>0.75674820862185999</v>
       </c>
       <c r="I7">
-        <v>9.4566097550419486E-3</v>
+        <v>1.157572065044131E-2</v>
       </c>
       <c r="J7">
-        <v>0.59534271176294529</v>
+        <v>0.56295121221191258</v>
       </c>
       <c r="K7">
-        <v>3.3852444416259098E-3</v>
+        <v>7.3141585429520092E-3</v>
       </c>
       <c r="L7">
-        <v>0.59607655502392343</v>
+        <v>0.56334928229665071</v>
       </c>
       <c r="M7">
-        <v>1.2269812276815961E-2</v>
+        <v>1.0962995337727179E-2</v>
       </c>
       <c r="N7">
-        <v>0.78822717797319353</v>
+        <v>0.71217804460801404</v>
       </c>
       <c r="O7">
-        <v>1.174592896554647E-2</v>
+        <v>1.5852043606704211E-2</v>
       </c>
       <c r="P7">
-        <v>0.78366226956157126</v>
+        <v>0.71036743358682297</v>
       </c>
       <c r="Q7">
-        <v>1.9163724394555569E-2</v>
+        <v>1.9408236964990829E-2</v>
       </c>
       <c r="R7">
-        <v>0.61388805746782404</v>
+        <v>0.58038910505836583</v>
       </c>
       <c r="S7">
-        <v>4.2921740246018277E-3</v>
+        <v>3.6348012218060792E-3</v>
       </c>
       <c r="T7">
-        <v>0.61110047846889959</v>
+        <v>0.58062200956937793</v>
       </c>
       <c r="U7">
-        <v>1.4420976431951031E-2</v>
+        <v>1.2135107036337221E-2</v>
       </c>
       <c r="V7">
-        <v>0.82782012919732006</v>
+        <v>0.75495712566614726</v>
       </c>
       <c r="W7">
-        <v>2.468824909262242E-3</v>
+        <v>3.024051237282342E-3</v>
       </c>
       <c r="X7">
-        <v>0.82666974643143021</v>
+        <v>0.75674820862185999</v>
       </c>
       <c r="Y7">
-        <v>9.4566097550419486E-3</v>
+        <v>1.157572065044131E-2</v>
       </c>
       <c r="Z7">
-        <v>0.61394193355282856</v>
+        <v>0.58035917390003</v>
       </c>
       <c r="AA7">
-        <v>4.3012188861380231E-3</v>
+        <v>3.7136305962211869E-3</v>
       </c>
       <c r="AB7">
-        <v>0.61078947368421055</v>
+        <v>0.58064593301435408</v>
       </c>
       <c r="AC7">
-        <v>1.4441301906369049E-2</v>
+        <v>1.2021596562463099E-2</v>
       </c>
       <c r="AD7">
-        <v>0.82773140070864115</v>
+        <v>0.75496529390094391</v>
       </c>
       <c r="AE7">
-        <v>2.434950377611106E-3</v>
+        <v>3.044113584603545E-3</v>
       </c>
       <c r="AF7">
-        <v>0.82657604458608902</v>
+        <v>0.75675716020161954</v>
       </c>
       <c r="AG7">
-        <v>9.5101270593731472E-3</v>
+        <v>1.1566787994729001E-2</v>
       </c>
       <c r="AH7">
-        <v>0.61318766836276573</v>
+        <v>0.58041304998503451</v>
       </c>
       <c r="AI7">
-        <v>3.763054930694809E-3</v>
+        <v>3.6733031597092529E-3</v>
       </c>
       <c r="AJ7">
-        <v>0.61095693779904314</v>
+        <v>0.58078947368421041</v>
       </c>
       <c r="AK7">
-        <v>1.4635518196973261E-2</v>
+        <v>1.209781433928186E-2</v>
       </c>
       <c r="AL7">
-        <v>0.82730728348983196</v>
+        <v>0.7548328967253144</v>
       </c>
       <c r="AM7">
-        <v>2.3670311422674959E-3</v>
+        <v>2.9962609217196521E-3</v>
       </c>
       <c r="AN7">
-        <v>0.82629613886579745</v>
+        <v>0.75663710134318818</v>
       </c>
       <c r="AO7">
-        <v>9.5162385907579857E-3</v>
+        <v>1.154687061649049E-2</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
